--- a/Future_veggies.xlsx
+++ b/Future_veggies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loonn\Desktop\technion\semster 4\datathon22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B66679-633D-4395-B3CE-E1208EB81D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B03D0B-737E-498F-AF0B-B00143263DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1089" yWindow="1089" windowWidth="18032" windowHeight="9266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="100">
   <si>
     <t>שם ירק</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>עגבניות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עגבניות </t>
   </si>
   <si>
     <t>פלפלים</t>
@@ -687,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0">
+      <selection activeCell="B796" sqref="B796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -701,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -709,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -723,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -737,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -751,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -765,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -779,7 +776,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -793,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -807,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -821,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -835,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -849,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -863,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -877,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -891,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -905,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -919,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -933,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -947,7 +944,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -961,7 +958,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -975,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -989,7 +986,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1003,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1017,7 +1014,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -1031,7 +1028,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>25</v>
@@ -1045,7 +1042,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1059,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -1073,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -1087,7 +1084,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -1101,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -1115,7 +1112,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
@@ -1129,7 +1126,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1143,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
@@ -1157,7 +1154,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
         <v>34</v>
@@ -1171,7 +1168,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -1185,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
@@ -1199,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -1213,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
         <v>38</v>
@@ -1227,7 +1224,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
         <v>39</v>
@@ -1241,7 +1238,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -1255,7 +1252,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -1269,7 +1266,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -1283,7 +1280,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
         <v>43</v>
@@ -1297,7 +1294,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
         <v>44</v>
@@ -1311,7 +1308,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
@@ -1325,7 +1322,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
@@ -1339,7 +1336,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -1353,7 +1350,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
@@ -1367,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
         <v>49</v>
@@ -1381,7 +1378,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -1395,7 +1392,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
@@ -1409,7 +1406,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
         <v>52</v>
@@ -1423,7 +1420,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
         <v>53</v>
@@ -1437,7 +1434,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -1451,7 +1448,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
@@ -1465,7 +1462,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
         <v>56</v>
@@ -1479,7 +1476,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>57</v>
@@ -1493,7 +1490,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -1507,7 +1504,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
@@ -1521,7 +1518,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
@@ -1535,7 +1532,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -1549,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
         <v>62</v>
@@ -1563,7 +1560,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
         <v>63</v>
@@ -1577,7 +1574,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
@@ -1591,7 +1588,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
         <v>65</v>
@@ -1605,7 +1602,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
         <v>66</v>
@@ -1619,7 +1616,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
         <v>67</v>
@@ -1633,7 +1630,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -2907,7 +2904,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C159" t="s">
         <v>70</v>
@@ -2921,7 +2918,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C160" t="s">
         <v>71</v>
@@ -2935,7 +2932,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
@@ -2949,7 +2946,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C162" t="s">
         <v>3</v>
@@ -2963,7 +2960,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -2977,7 +2974,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2991,7 +2988,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -3005,7 +3002,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -3019,7 +3016,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -3033,7 +3030,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
@@ -3047,7 +3044,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C169" t="s">
         <v>10</v>
@@ -3061,7 +3058,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C170" t="s">
         <v>11</v>
@@ -3075,7 +3072,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
@@ -3089,7 +3086,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -3103,7 +3100,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
@@ -3117,7 +3114,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -3131,7 +3128,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -3145,7 +3142,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C176" t="s">
         <v>17</v>
@@ -3159,7 +3156,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
@@ -3173,7 +3170,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C178" t="s">
         <v>19</v>
@@ -3187,7 +3184,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C179" t="s">
         <v>20</v>
@@ -3201,7 +3198,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C180" t="s">
         <v>21</v>
@@ -3215,7 +3212,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C181" t="s">
         <v>22</v>
@@ -3229,7 +3226,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C182" t="s">
         <v>23</v>
@@ -3243,7 +3240,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
@@ -3257,7 +3254,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C184" t="s">
         <v>25</v>
@@ -3271,7 +3268,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C185" t="s">
         <v>26</v>
@@ -3285,7 +3282,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -3299,7 +3296,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -3313,7 +3310,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -3327,7 +3324,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
@@ -3341,7 +3338,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C190" t="s">
         <v>31</v>
@@ -3355,7 +3352,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C191" t="s">
         <v>32</v>
@@ -3369,7 +3366,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C192" t="s">
         <v>33</v>
@@ -3383,7 +3380,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C193" t="s">
         <v>34</v>
@@ -3397,7 +3394,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C194" t="s">
         <v>35</v>
@@ -3411,7 +3408,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C195" t="s">
         <v>36</v>
@@ -3425,7 +3422,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C196" t="s">
         <v>72</v>
@@ -3439,7 +3436,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C197" t="s">
         <v>73</v>
@@ -3453,7 +3450,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C198" t="s">
         <v>74</v>
@@ -3467,7 +3464,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C199" t="s">
         <v>75</v>
@@ -3481,7 +3478,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C200" t="s">
         <v>76</v>
@@ -3495,7 +3492,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C201" t="s">
         <v>77</v>
@@ -3509,7 +3506,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C202" t="s">
         <v>78</v>
@@ -3523,7 +3520,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C203" t="s">
         <v>79</v>
@@ -3537,7 +3534,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C204" t="s">
         <v>80</v>
@@ -3551,7 +3548,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C205" t="s">
         <v>81</v>
@@ -3565,7 +3562,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C206" t="s">
         <v>82</v>
@@ -3579,7 +3576,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C207" t="s">
         <v>83</v>
@@ -3593,7 +3590,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C208" t="s">
         <v>84</v>
@@ -3607,7 +3604,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C209" t="s">
         <v>37</v>
@@ -3621,7 +3618,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C210" t="s">
         <v>38</v>
@@ -3635,7 +3632,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C211" t="s">
         <v>39</v>
@@ -3649,7 +3646,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C212" t="s">
         <v>40</v>
@@ -3663,7 +3660,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C213" t="s">
         <v>41</v>
@@ -3677,7 +3674,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C214" t="s">
         <v>42</v>
@@ -3691,7 +3688,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C215" t="s">
         <v>43</v>
@@ -3705,7 +3702,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C216" t="s">
         <v>44</v>
@@ -3719,7 +3716,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C217" t="s">
         <v>45</v>
@@ -3733,7 +3730,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C218" t="s">
         <v>46</v>
@@ -3747,7 +3744,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C219" t="s">
         <v>47</v>
@@ -3761,7 +3758,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C220" t="s">
         <v>48</v>
@@ -3775,7 +3772,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C221" t="s">
         <v>49</v>
@@ -3789,7 +3786,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C222" t="s">
         <v>50</v>
@@ -3803,7 +3800,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C223" t="s">
         <v>51</v>
@@ -3817,7 +3814,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C224" t="s">
         <v>52</v>
@@ -3831,7 +3828,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C225" t="s">
         <v>53</v>
@@ -3845,7 +3842,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C226" t="s">
         <v>54</v>
@@ -3859,7 +3856,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C227" t="s">
         <v>55</v>
@@ -3873,7 +3870,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C228" t="s">
         <v>56</v>
@@ -3887,7 +3884,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C229" t="s">
         <v>57</v>
@@ -3901,7 +3898,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C230" t="s">
         <v>58</v>
@@ -3915,7 +3912,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C231" t="s">
         <v>59</v>
@@ -3929,7 +3926,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C232" t="s">
         <v>60</v>
@@ -3943,7 +3940,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C233" t="s">
         <v>61</v>
@@ -3957,7 +3954,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C234" t="s">
         <v>62</v>
@@ -3971,7 +3968,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C235" t="s">
         <v>63</v>
@@ -3985,7 +3982,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C236" t="s">
         <v>64</v>
@@ -3999,7 +3996,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C237" t="s">
         <v>65</v>
@@ -4013,7 +4010,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C238" t="s">
         <v>66</v>
@@ -4027,7 +4024,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C239" t="s">
         <v>67</v>
@@ -4041,7 +4038,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C240" t="s">
         <v>68</v>
@@ -11825,7 +11822,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C796" t="s">
         <v>70</v>
@@ -11839,7 +11836,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C797" t="s">
         <v>71</v>
@@ -11853,7 +11850,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C798" t="s">
         <v>2</v>
@@ -11867,7 +11864,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C799" t="s">
         <v>3</v>
@@ -11881,7 +11878,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C800" t="s">
         <v>4</v>
@@ -11895,7 +11892,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C801" t="s">
         <v>5</v>
@@ -11909,7 +11906,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C802" t="s">
         <v>6</v>
@@ -11923,7 +11920,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C803" t="s">
         <v>7</v>
@@ -11937,7 +11934,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C804" t="s">
         <v>8</v>
@@ -11951,7 +11948,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C805" t="s">
         <v>9</v>
@@ -11965,7 +11962,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C806" t="s">
         <v>10</v>
@@ -11979,7 +11976,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C807" t="s">
         <v>11</v>
@@ -11993,7 +11990,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C808" t="s">
         <v>12</v>
@@ -12007,7 +12004,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C809" t="s">
         <v>13</v>
@@ -12021,7 +12018,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C810" t="s">
         <v>14</v>
@@ -12035,7 +12032,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C811" t="s">
         <v>15</v>
@@ -12049,7 +12046,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C812" t="s">
         <v>16</v>
@@ -12063,7 +12060,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C813" t="s">
         <v>17</v>
@@ -12077,7 +12074,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C814" t="s">
         <v>18</v>
@@ -12091,7 +12088,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C815" t="s">
         <v>19</v>
@@ -12105,7 +12102,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C816" t="s">
         <v>20</v>
@@ -12119,7 +12116,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C817" t="s">
         <v>21</v>
@@ -12133,7 +12130,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C818" t="s">
         <v>22</v>
@@ -12147,7 +12144,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C819" t="s">
         <v>23</v>
@@ -12161,7 +12158,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C820" t="s">
         <v>24</v>
@@ -12175,7 +12172,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C821" t="s">
         <v>25</v>
@@ -12189,7 +12186,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C822" t="s">
         <v>26</v>
@@ -12203,7 +12200,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C823" t="s">
         <v>27</v>
@@ -12217,7 +12214,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C824" t="s">
         <v>28</v>
@@ -12231,7 +12228,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C825" t="s">
         <v>29</v>
@@ -12245,7 +12242,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C826" t="s">
         <v>30</v>
@@ -12259,7 +12256,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C827" t="s">
         <v>31</v>
@@ -12273,7 +12270,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C828" t="s">
         <v>32</v>
@@ -12287,7 +12284,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C829" t="s">
         <v>33</v>
@@ -12301,7 +12298,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C830" t="s">
         <v>34</v>
@@ -12315,7 +12312,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C831" t="s">
         <v>35</v>
@@ -12329,7 +12326,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C832" t="s">
         <v>36</v>
@@ -12343,7 +12340,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C833" t="s">
         <v>72</v>
@@ -12357,7 +12354,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C834" t="s">
         <v>73</v>
@@ -12371,7 +12368,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C835" t="s">
         <v>74</v>
@@ -12385,7 +12382,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C836" t="s">
         <v>75</v>
@@ -12399,7 +12396,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C837" t="s">
         <v>76</v>
@@ -12413,7 +12410,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C838" t="s">
         <v>77</v>
@@ -12427,7 +12424,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C839" t="s">
         <v>78</v>
@@ -12441,7 +12438,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C840" t="s">
         <v>79</v>
@@ -12455,7 +12452,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C841" t="s">
         <v>80</v>
@@ -12469,7 +12466,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C842" t="s">
         <v>81</v>
@@ -12483,7 +12480,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C843" t="s">
         <v>82</v>
@@ -12497,7 +12494,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C844" t="s">
         <v>83</v>
@@ -12511,7 +12508,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C845" t="s">
         <v>84</v>
@@ -12525,7 +12522,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C846" t="s">
         <v>37</v>
@@ -12539,7 +12536,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C847" t="s">
         <v>38</v>
@@ -12553,7 +12550,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C848" t="s">
         <v>39</v>
@@ -12567,7 +12564,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C849" t="s">
         <v>40</v>
@@ -12581,7 +12578,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C850" t="s">
         <v>41</v>
@@ -12595,7 +12592,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C851" t="s">
         <v>42</v>
@@ -12609,7 +12606,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C852" t="s">
         <v>43</v>
@@ -12623,7 +12620,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C853" t="s">
         <v>44</v>
@@ -12637,7 +12634,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C854" t="s">
         <v>45</v>
@@ -12651,7 +12648,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C855" t="s">
         <v>46</v>
@@ -12665,7 +12662,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C856" t="s">
         <v>47</v>
@@ -12679,7 +12676,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C857" t="s">
         <v>48</v>
@@ -12693,7 +12690,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C858" t="s">
         <v>49</v>
@@ -12707,7 +12704,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C859" t="s">
         <v>50</v>
@@ -12721,7 +12718,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C860" t="s">
         <v>51</v>
@@ -12735,7 +12732,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C861" t="s">
         <v>52</v>
@@ -12749,7 +12746,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C862" t="s">
         <v>53</v>
@@ -12763,7 +12760,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C863" t="s">
         <v>54</v>
@@ -12777,7 +12774,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C864" t="s">
         <v>55</v>
@@ -12791,7 +12788,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C865" t="s">
         <v>56</v>
@@ -12805,7 +12802,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C866" t="s">
         <v>57</v>
@@ -12819,7 +12816,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C867" t="s">
         <v>58</v>
@@ -12833,7 +12830,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C868" t="s">
         <v>59</v>
@@ -12847,7 +12844,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C869" t="s">
         <v>60</v>
@@ -12861,7 +12858,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C870" t="s">
         <v>61</v>
@@ -12875,7 +12872,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C871" t="s">
         <v>62</v>
@@ -12889,7 +12886,7 @@
         <v>870</v>
       </c>
       <c r="B872" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C872" t="s">
         <v>63</v>
@@ -12903,7 +12900,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C873" t="s">
         <v>64</v>
@@ -12917,7 +12914,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C874" t="s">
         <v>65</v>
@@ -12931,7 +12928,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C875" t="s">
         <v>66</v>
@@ -12945,7 +12942,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C876" t="s">
         <v>67</v>
@@ -12959,7 +12956,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C877" t="s">
         <v>68</v>
@@ -12973,7 +12970,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C878" t="s">
         <v>70</v>
@@ -12987,7 +12984,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C879" t="s">
         <v>71</v>
@@ -13001,7 +12998,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C880" t="s">
         <v>2</v>
@@ -13015,7 +13012,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C881" t="s">
         <v>3</v>
@@ -13029,7 +13026,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C882" t="s">
         <v>4</v>
@@ -13043,7 +13040,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C883" t="s">
         <v>5</v>
@@ -13057,7 +13054,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C884" t="s">
         <v>6</v>
@@ -13071,7 +13068,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C885" t="s">
         <v>7</v>
@@ -13085,7 +13082,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C886" t="s">
         <v>8</v>
@@ -13099,7 +13096,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C887" t="s">
         <v>9</v>
@@ -13113,7 +13110,7 @@
         <v>886</v>
       </c>
       <c r="B888" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C888" t="s">
         <v>10</v>
@@ -13127,7 +13124,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C889" t="s">
         <v>11</v>
@@ -13141,7 +13138,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C890" t="s">
         <v>12</v>
@@ -13155,7 +13152,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C891" t="s">
         <v>13</v>
@@ -13169,7 +13166,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C892" t="s">
         <v>14</v>
@@ -13183,7 +13180,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C893" t="s">
         <v>15</v>
@@ -13197,7 +13194,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C894" t="s">
         <v>16</v>
@@ -13211,7 +13208,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C895" t="s">
         <v>17</v>
@@ -13225,7 +13222,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C896" t="s">
         <v>18</v>
@@ -13239,7 +13236,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C897" t="s">
         <v>19</v>
@@ -13253,7 +13250,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C898" t="s">
         <v>20</v>
@@ -13267,7 +13264,7 @@
         <v>897</v>
       </c>
       <c r="B899" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C899" t="s">
         <v>21</v>
@@ -13281,7 +13278,7 @@
         <v>898</v>
       </c>
       <c r="B900" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C900" t="s">
         <v>22</v>
@@ -13295,7 +13292,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C901" t="s">
         <v>23</v>
@@ -13309,7 +13306,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C902" t="s">
         <v>24</v>
@@ -13323,7 +13320,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C903" t="s">
         <v>25</v>
@@ -13337,7 +13334,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C904" t="s">
         <v>26</v>
@@ -13351,7 +13348,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C905" t="s">
         <v>27</v>
@@ -13365,7 +13362,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -13379,7 +13376,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C907" t="s">
         <v>29</v>
@@ -13393,7 +13390,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C908" t="s">
         <v>30</v>
@@ -13407,7 +13404,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C909" t="s">
         <v>31</v>
@@ -13421,7 +13418,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C910" t="s">
         <v>32</v>
@@ -13435,7 +13432,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C911" t="s">
         <v>33</v>
@@ -13449,7 +13446,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C912" t="s">
         <v>34</v>
@@ -13463,7 +13460,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C913" t="s">
         <v>35</v>
@@ -13477,7 +13474,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C914" t="s">
         <v>36</v>
@@ -13491,7 +13488,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C915" t="s">
         <v>72</v>
@@ -13505,7 +13502,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C916" t="s">
         <v>73</v>
@@ -13519,7 +13516,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C917" t="s">
         <v>74</v>
@@ -13533,7 +13530,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C918" t="s">
         <v>75</v>
@@ -13547,7 +13544,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C919" t="s">
         <v>76</v>
@@ -13561,7 +13558,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C920" t="s">
         <v>77</v>
@@ -13575,7 +13572,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C921" t="s">
         <v>78</v>
@@ -13589,7 +13586,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C922" t="s">
         <v>79</v>
@@ -13603,7 +13600,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C923" t="s">
         <v>80</v>
@@ -13617,7 +13614,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C924" t="s">
         <v>81</v>
@@ -13631,7 +13628,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C925" t="s">
         <v>82</v>
@@ -13645,7 +13642,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C926" t="s">
         <v>83</v>
@@ -13659,7 +13656,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C927" t="s">
         <v>84</v>
@@ -13673,7 +13670,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C928" t="s">
         <v>37</v>
@@ -13687,7 +13684,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C929" t="s">
         <v>38</v>
@@ -13701,7 +13698,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C930" t="s">
         <v>39</v>
@@ -13715,7 +13712,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C931" t="s">
         <v>40</v>
@@ -13729,7 +13726,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C932" t="s">
         <v>41</v>
@@ -13743,7 +13740,7 @@
         <v>931</v>
       </c>
       <c r="B933" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C933" t="s">
         <v>42</v>
@@ -13757,7 +13754,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C934" t="s">
         <v>43</v>
@@ -13771,7 +13768,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C935" t="s">
         <v>44</v>
@@ -13785,7 +13782,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C936" t="s">
         <v>45</v>
@@ -13799,7 +13796,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C937" t="s">
         <v>46</v>
@@ -13813,7 +13810,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C938" t="s">
         <v>47</v>
@@ -13827,7 +13824,7 @@
         <v>937</v>
       </c>
       <c r="B939" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C939" t="s">
         <v>48</v>
@@ -13841,7 +13838,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C940" t="s">
         <v>49</v>
@@ -13855,7 +13852,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C941" t="s">
         <v>50</v>
@@ -13869,7 +13866,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C942" t="s">
         <v>51</v>
@@ -13883,7 +13880,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C943" t="s">
         <v>52</v>
@@ -13897,7 +13894,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C944" t="s">
         <v>53</v>
@@ -13911,7 +13908,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C945" t="s">
         <v>54</v>
@@ -13925,7 +13922,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C946" t="s">
         <v>55</v>
@@ -13939,7 +13936,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C947" t="s">
         <v>56</v>
@@ -13953,7 +13950,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C948" t="s">
         <v>57</v>
@@ -13967,7 +13964,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C949" t="s">
         <v>58</v>
@@ -13981,7 +13978,7 @@
         <v>948</v>
       </c>
       <c r="B950" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C950" t="s">
         <v>59</v>
@@ -13995,7 +13992,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C951" t="s">
         <v>60</v>
@@ -14009,7 +14006,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C952" t="s">
         <v>61</v>
@@ -14023,7 +14020,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C953" t="s">
         <v>62</v>
@@ -14037,7 +14034,7 @@
         <v>952</v>
       </c>
       <c r="B954" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C954" t="s">
         <v>63</v>
@@ -14051,7 +14048,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C955" t="s">
         <v>64</v>
@@ -14065,7 +14062,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C956" t="s">
         <v>65</v>
@@ -14079,7 +14076,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C957" t="s">
         <v>66</v>
@@ -14093,7 +14090,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C958" t="s">
         <v>67</v>
@@ -14107,7 +14104,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C959" t="s">
         <v>68</v>
@@ -14121,7 +14118,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C960" t="s">
         <v>70</v>
@@ -14135,7 +14132,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C961" t="s">
         <v>71</v>
@@ -14149,7 +14146,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C962" t="s">
         <v>2</v>
@@ -14163,7 +14160,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C963" t="s">
         <v>3</v>
@@ -14177,7 +14174,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C964" t="s">
         <v>4</v>
@@ -14191,7 +14188,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C965" t="s">
         <v>5</v>
@@ -14205,7 +14202,7 @@
         <v>964</v>
       </c>
       <c r="B966" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C966" t="s">
         <v>6</v>
@@ -14219,7 +14216,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C967" t="s">
         <v>7</v>
@@ -14233,7 +14230,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C968" t="s">
         <v>8</v>
@@ -14247,7 +14244,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C969" t="s">
         <v>9</v>
@@ -14261,7 +14258,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C970" t="s">
         <v>10</v>
@@ -14275,7 +14272,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C971" t="s">
         <v>11</v>
@@ -14289,7 +14286,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C972" t="s">
         <v>12</v>
@@ -14303,7 +14300,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C973" t="s">
         <v>13</v>
@@ -14317,7 +14314,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C974" t="s">
         <v>14</v>
@@ -14331,7 +14328,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C975" t="s">
         <v>15</v>
@@ -14345,7 +14342,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C976" t="s">
         <v>16</v>
@@ -14359,7 +14356,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C977" t="s">
         <v>17</v>
@@ -14373,7 +14370,7 @@
         <v>976</v>
       </c>
       <c r="B978" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C978" t="s">
         <v>18</v>
@@ -14387,7 +14384,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C979" t="s">
         <v>19</v>
@@ -14401,7 +14398,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C980" t="s">
         <v>20</v>
@@ -14415,7 +14412,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C981" t="s">
         <v>21</v>
@@ -14429,7 +14426,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C982" t="s">
         <v>22</v>
@@ -14443,7 +14440,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C983" t="s">
         <v>23</v>
@@ -14457,7 +14454,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C984" t="s">
         <v>24</v>
@@ -14471,7 +14468,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C985" t="s">
         <v>25</v>
@@ -14485,7 +14482,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C986" t="s">
         <v>26</v>
@@ -14499,7 +14496,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C987" t="s">
         <v>27</v>
@@ -14513,7 +14510,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C988" t="s">
         <v>28</v>
@@ -14527,7 +14524,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C989" t="s">
         <v>29</v>
@@ -14541,7 +14538,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C990" t="s">
         <v>30</v>
@@ -14555,7 +14552,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C991" t="s">
         <v>31</v>
@@ -14569,7 +14566,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C992" t="s">
         <v>32</v>
@@ -14583,7 +14580,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C993" t="s">
         <v>33</v>
@@ -14597,7 +14594,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C994" t="s">
         <v>34</v>
@@ -14611,7 +14608,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C995" t="s">
         <v>35</v>
@@ -14625,7 +14622,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C996" t="s">
         <v>36</v>
@@ -14639,7 +14636,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C997" t="s">
         <v>72</v>
@@ -14653,7 +14650,7 @@
         <v>996</v>
       </c>
       <c r="B998" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C998" t="s">
         <v>73</v>
@@ -14667,7 +14664,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C999" t="s">
         <v>74</v>
@@ -14681,7 +14678,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1000" t="s">
         <v>75</v>
@@ -14695,7 +14692,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1001" t="s">
         <v>76</v>
@@ -14709,7 +14706,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1002" t="s">
         <v>77</v>
@@ -14723,7 +14720,7 @@
         <v>1001</v>
       </c>
       <c r="B1003" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1003" t="s">
         <v>78</v>
@@ -14737,7 +14734,7 @@
         <v>1002</v>
       </c>
       <c r="B1004" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1004" t="s">
         <v>79</v>
@@ -14751,7 +14748,7 @@
         <v>1003</v>
       </c>
       <c r="B1005" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1005" t="s">
         <v>80</v>
@@ -14765,7 +14762,7 @@
         <v>1004</v>
       </c>
       <c r="B1006" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1006" t="s">
         <v>81</v>
@@ -14779,7 +14776,7 @@
         <v>1005</v>
       </c>
       <c r="B1007" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1007" t="s">
         <v>82</v>
@@ -14793,7 +14790,7 @@
         <v>1006</v>
       </c>
       <c r="B1008" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1008" t="s">
         <v>83</v>
@@ -14807,7 +14804,7 @@
         <v>1007</v>
       </c>
       <c r="B1009" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1009" t="s">
         <v>84</v>
@@ -14821,7 +14818,7 @@
         <v>1008</v>
       </c>
       <c r="B1010" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1010" t="s">
         <v>37</v>
@@ -14835,7 +14832,7 @@
         <v>1009</v>
       </c>
       <c r="B1011" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1011" t="s">
         <v>38</v>
@@ -14849,7 +14846,7 @@
         <v>1010</v>
       </c>
       <c r="B1012" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1012" t="s">
         <v>39</v>
@@ -14863,7 +14860,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1013" t="s">
         <v>40</v>
@@ -14877,7 +14874,7 @@
         <v>1012</v>
       </c>
       <c r="B1014" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1014" t="s">
         <v>41</v>
@@ -14891,7 +14888,7 @@
         <v>1013</v>
       </c>
       <c r="B1015" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1015" t="s">
         <v>42</v>
@@ -14905,7 +14902,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1016" t="s">
         <v>43</v>
@@ -14919,7 +14916,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1017" t="s">
         <v>44</v>
@@ -14933,7 +14930,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1018" t="s">
         <v>45</v>
@@ -14947,7 +14944,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1019" t="s">
         <v>46</v>
@@ -14961,7 +14958,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1020" t="s">
         <v>47</v>
@@ -14975,7 +14972,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1021" t="s">
         <v>48</v>
@@ -14989,7 +14986,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1022" t="s">
         <v>49</v>
@@ -15003,7 +15000,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1023" t="s">
         <v>50</v>
@@ -15017,7 +15014,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1024" t="s">
         <v>51</v>
@@ -15031,7 +15028,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1025" t="s">
         <v>52</v>
@@ -15045,7 +15042,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1026" t="s">
         <v>53</v>
@@ -15059,7 +15056,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1027" t="s">
         <v>54</v>
@@ -15073,7 +15070,7 @@
         <v>1026</v>
       </c>
       <c r="B1028" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1028" t="s">
         <v>55</v>
@@ -15087,7 +15084,7 @@
         <v>1027</v>
       </c>
       <c r="B1029" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1029" t="s">
         <v>56</v>
@@ -15101,7 +15098,7 @@
         <v>1028</v>
       </c>
       <c r="B1030" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1030" t="s">
         <v>57</v>
@@ -15115,7 +15112,7 @@
         <v>1029</v>
       </c>
       <c r="B1031" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1031" t="s">
         <v>58</v>
@@ -15129,7 +15126,7 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1032" t="s">
         <v>59</v>
@@ -15143,7 +15140,7 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1033" t="s">
         <v>60</v>
@@ -15157,7 +15154,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1034" t="s">
         <v>61</v>
@@ -15171,7 +15168,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1035" t="s">
         <v>62</v>
@@ -15185,7 +15182,7 @@
         <v>1034</v>
       </c>
       <c r="B1036" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1036" t="s">
         <v>63</v>
@@ -15199,7 +15196,7 @@
         <v>1035</v>
       </c>
       <c r="B1037" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1037" t="s">
         <v>64</v>
@@ -15213,7 +15210,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1038" t="s">
         <v>65</v>
@@ -15227,7 +15224,7 @@
         <v>1037</v>
       </c>
       <c r="B1039" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1039" t="s">
         <v>66</v>
@@ -15241,7 +15238,7 @@
         <v>1038</v>
       </c>
       <c r="B1040" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1040" t="s">
         <v>67</v>
@@ -15255,7 +15252,7 @@
         <v>1039</v>
       </c>
       <c r="B1041" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1041" t="s">
         <v>68</v>
@@ -15269,7 +15266,7 @@
         <v>1040</v>
       </c>
       <c r="B1042" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1042" t="s">
         <v>70</v>
@@ -15283,7 +15280,7 @@
         <v>1041</v>
       </c>
       <c r="B1043" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1043" t="s">
         <v>71</v>
@@ -15297,7 +15294,7 @@
         <v>1042</v>
       </c>
       <c r="B1044" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1044" t="s">
         <v>2</v>
@@ -15311,7 +15308,7 @@
         <v>1043</v>
       </c>
       <c r="B1045" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1045" t="s">
         <v>3</v>
@@ -15325,7 +15322,7 @@
         <v>1044</v>
       </c>
       <c r="B1046" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1046" t="s">
         <v>4</v>
@@ -15339,7 +15336,7 @@
         <v>1045</v>
       </c>
       <c r="B1047" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1047" t="s">
         <v>5</v>
@@ -15353,7 +15350,7 @@
         <v>1046</v>
       </c>
       <c r="B1048" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1048" t="s">
         <v>6</v>
@@ -15367,7 +15364,7 @@
         <v>1047</v>
       </c>
       <c r="B1049" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1049" t="s">
         <v>7</v>
@@ -15381,7 +15378,7 @@
         <v>1048</v>
       </c>
       <c r="B1050" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1050" t="s">
         <v>8</v>
@@ -15395,7 +15392,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1051" t="s">
         <v>9</v>
@@ -15409,7 +15406,7 @@
         <v>1050</v>
       </c>
       <c r="B1052" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1052" t="s">
         <v>10</v>
@@ -15423,7 +15420,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1053" t="s">
         <v>11</v>
@@ -15437,7 +15434,7 @@
         <v>1052</v>
       </c>
       <c r="B1054" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1054" t="s">
         <v>12</v>
@@ -15451,7 +15448,7 @@
         <v>1053</v>
       </c>
       <c r="B1055" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1055" t="s">
         <v>13</v>
@@ -15465,7 +15462,7 @@
         <v>1054</v>
       </c>
       <c r="B1056" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1056" t="s">
         <v>14</v>
@@ -15479,7 +15476,7 @@
         <v>1055</v>
       </c>
       <c r="B1057" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1057" t="s">
         <v>15</v>
@@ -15493,7 +15490,7 @@
         <v>1056</v>
       </c>
       <c r="B1058" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1058" t="s">
         <v>16</v>
@@ -15507,7 +15504,7 @@
         <v>1057</v>
       </c>
       <c r="B1059" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1059" t="s">
         <v>17</v>
@@ -15521,7 +15518,7 @@
         <v>1058</v>
       </c>
       <c r="B1060" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1060" t="s">
         <v>18</v>
@@ -15535,7 +15532,7 @@
         <v>1059</v>
       </c>
       <c r="B1061" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1061" t="s">
         <v>19</v>
@@ -15549,7 +15546,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1062" t="s">
         <v>20</v>
@@ -15563,7 +15560,7 @@
         <v>1061</v>
       </c>
       <c r="B1063" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1063" t="s">
         <v>21</v>
@@ -15577,7 +15574,7 @@
         <v>1062</v>
       </c>
       <c r="B1064" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1064" t="s">
         <v>22</v>
@@ -15591,7 +15588,7 @@
         <v>1063</v>
       </c>
       <c r="B1065" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1065" t="s">
         <v>23</v>
@@ -15605,7 +15602,7 @@
         <v>1064</v>
       </c>
       <c r="B1066" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1066" t="s">
         <v>24</v>
@@ -15619,7 +15616,7 @@
         <v>1065</v>
       </c>
       <c r="B1067" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1067" t="s">
         <v>25</v>
@@ -15633,7 +15630,7 @@
         <v>1066</v>
       </c>
       <c r="B1068" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1068" t="s">
         <v>26</v>
@@ -15647,7 +15644,7 @@
         <v>1067</v>
       </c>
       <c r="B1069" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1069" t="s">
         <v>27</v>
@@ -15661,7 +15658,7 @@
         <v>1068</v>
       </c>
       <c r="B1070" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1070" t="s">
         <v>28</v>
@@ -15675,7 +15672,7 @@
         <v>1069</v>
       </c>
       <c r="B1071" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1071" t="s">
         <v>29</v>
@@ -15689,7 +15686,7 @@
         <v>1070</v>
       </c>
       <c r="B1072" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1072" t="s">
         <v>30</v>
@@ -15703,7 +15700,7 @@
         <v>1071</v>
       </c>
       <c r="B1073" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1073" t="s">
         <v>31</v>
@@ -15717,7 +15714,7 @@
         <v>1072</v>
       </c>
       <c r="B1074" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1074" t="s">
         <v>32</v>
@@ -15731,7 +15728,7 @@
         <v>1073</v>
       </c>
       <c r="B1075" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1075" t="s">
         <v>33</v>
@@ -15745,7 +15742,7 @@
         <v>1074</v>
       </c>
       <c r="B1076" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1076" t="s">
         <v>34</v>
@@ -15759,7 +15756,7 @@
         <v>1075</v>
       </c>
       <c r="B1077" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1077" t="s">
         <v>35</v>
@@ -15773,7 +15770,7 @@
         <v>1076</v>
       </c>
       <c r="B1078" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1078" t="s">
         <v>36</v>
@@ -15787,7 +15784,7 @@
         <v>1077</v>
       </c>
       <c r="B1079" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1079" t="s">
         <v>72</v>
@@ -15801,7 +15798,7 @@
         <v>1078</v>
       </c>
       <c r="B1080" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1080" t="s">
         <v>73</v>
@@ -15815,7 +15812,7 @@
         <v>1079</v>
       </c>
       <c r="B1081" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1081" t="s">
         <v>74</v>
@@ -15829,7 +15826,7 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1082" t="s">
         <v>75</v>
@@ -15843,7 +15840,7 @@
         <v>1081</v>
       </c>
       <c r="B1083" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1083" t="s">
         <v>76</v>
@@ -15857,7 +15854,7 @@
         <v>1082</v>
       </c>
       <c r="B1084" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1084" t="s">
         <v>77</v>
@@ -15871,7 +15868,7 @@
         <v>1083</v>
       </c>
       <c r="B1085" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1085" t="s">
         <v>78</v>
@@ -15885,7 +15882,7 @@
         <v>1084</v>
       </c>
       <c r="B1086" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1086" t="s">
         <v>79</v>
@@ -15899,7 +15896,7 @@
         <v>1085</v>
       </c>
       <c r="B1087" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1087" t="s">
         <v>80</v>
@@ -15913,7 +15910,7 @@
         <v>1086</v>
       </c>
       <c r="B1088" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1088" t="s">
         <v>81</v>
@@ -15927,7 +15924,7 @@
         <v>1087</v>
       </c>
       <c r="B1089" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1089" t="s">
         <v>82</v>
@@ -15941,7 +15938,7 @@
         <v>1088</v>
       </c>
       <c r="B1090" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1090" t="s">
         <v>83</v>
@@ -15955,7 +15952,7 @@
         <v>1089</v>
       </c>
       <c r="B1091" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1091" t="s">
         <v>84</v>
@@ -15969,7 +15966,7 @@
         <v>1090</v>
       </c>
       <c r="B1092" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1092" t="s">
         <v>37</v>
@@ -15983,7 +15980,7 @@
         <v>1091</v>
       </c>
       <c r="B1093" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1093" t="s">
         <v>38</v>
@@ -15997,7 +15994,7 @@
         <v>1092</v>
       </c>
       <c r="B1094" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1094" t="s">
         <v>39</v>
@@ -16011,7 +16008,7 @@
         <v>1093</v>
       </c>
       <c r="B1095" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1095" t="s">
         <v>40</v>
@@ -16025,7 +16022,7 @@
         <v>1094</v>
       </c>
       <c r="B1096" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1096" t="s">
         <v>41</v>
@@ -16039,7 +16036,7 @@
         <v>1095</v>
       </c>
       <c r="B1097" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1097" t="s">
         <v>42</v>
@@ -16053,7 +16050,7 @@
         <v>1096</v>
       </c>
       <c r="B1098" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1098" t="s">
         <v>43</v>
@@ -16067,7 +16064,7 @@
         <v>1097</v>
       </c>
       <c r="B1099" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1099" t="s">
         <v>44</v>
@@ -16081,7 +16078,7 @@
         <v>1098</v>
       </c>
       <c r="B1100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1100" t="s">
         <v>45</v>
@@ -16095,7 +16092,7 @@
         <v>1099</v>
       </c>
       <c r="B1101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1101" t="s">
         <v>46</v>
@@ -16109,7 +16106,7 @@
         <v>1100</v>
       </c>
       <c r="B1102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1102" t="s">
         <v>47</v>
@@ -16123,7 +16120,7 @@
         <v>1101</v>
       </c>
       <c r="B1103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1103" t="s">
         <v>48</v>
@@ -16137,7 +16134,7 @@
         <v>1102</v>
       </c>
       <c r="B1104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1104" t="s">
         <v>49</v>
@@ -16151,7 +16148,7 @@
         <v>1103</v>
       </c>
       <c r="B1105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1105" t="s">
         <v>50</v>
@@ -16165,7 +16162,7 @@
         <v>1104</v>
       </c>
       <c r="B1106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1106" t="s">
         <v>51</v>
@@ -16179,7 +16176,7 @@
         <v>1105</v>
       </c>
       <c r="B1107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1107" t="s">
         <v>52</v>
@@ -16193,7 +16190,7 @@
         <v>1106</v>
       </c>
       <c r="B1108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1108" t="s">
         <v>53</v>
@@ -16207,7 +16204,7 @@
         <v>1107</v>
       </c>
       <c r="B1109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1109" t="s">
         <v>54</v>
@@ -16221,7 +16218,7 @@
         <v>1108</v>
       </c>
       <c r="B1110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1110" t="s">
         <v>55</v>
@@ -16235,7 +16232,7 @@
         <v>1109</v>
       </c>
       <c r="B1111" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1111" t="s">
         <v>56</v>
@@ -16249,7 +16246,7 @@
         <v>1110</v>
       </c>
       <c r="B1112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1112" t="s">
         <v>57</v>
@@ -16263,7 +16260,7 @@
         <v>1111</v>
       </c>
       <c r="B1113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1113" t="s">
         <v>58</v>
@@ -16277,7 +16274,7 @@
         <v>1112</v>
       </c>
       <c r="B1114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1114" t="s">
         <v>59</v>
@@ -16291,7 +16288,7 @@
         <v>1113</v>
       </c>
       <c r="B1115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1115" t="s">
         <v>60</v>
@@ -16305,7 +16302,7 @@
         <v>1114</v>
       </c>
       <c r="B1116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1116" t="s">
         <v>61</v>
@@ -16319,7 +16316,7 @@
         <v>1115</v>
       </c>
       <c r="B1117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1117" t="s">
         <v>62</v>
@@ -16333,7 +16330,7 @@
         <v>1116</v>
       </c>
       <c r="B1118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1118" t="s">
         <v>63</v>
@@ -16347,7 +16344,7 @@
         <v>1117</v>
       </c>
       <c r="B1119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1119" t="s">
         <v>64</v>
@@ -16361,7 +16358,7 @@
         <v>1118</v>
       </c>
       <c r="B1120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1120" t="s">
         <v>65</v>
@@ -16375,7 +16372,7 @@
         <v>1119</v>
       </c>
       <c r="B1121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1121" t="s">
         <v>66</v>
@@ -16389,7 +16386,7 @@
         <v>1120</v>
       </c>
       <c r="B1122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1122" t="s">
         <v>67</v>
@@ -16403,7 +16400,7 @@
         <v>1121</v>
       </c>
       <c r="B1123" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1123" t="s">
         <v>68</v>
@@ -16417,7 +16414,7 @@
         <v>1122</v>
       </c>
       <c r="B1124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1124" t="s">
         <v>70</v>
@@ -16431,7 +16428,7 @@
         <v>1123</v>
       </c>
       <c r="B1125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1125" t="s">
         <v>71</v>
@@ -16445,7 +16442,7 @@
         <v>1124</v>
       </c>
       <c r="B1126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1126" t="s">
         <v>2</v>
@@ -16459,7 +16456,7 @@
         <v>1125</v>
       </c>
       <c r="B1127" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1127" t="s">
         <v>3</v>
@@ -16473,7 +16470,7 @@
         <v>1126</v>
       </c>
       <c r="B1128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1128" t="s">
         <v>4</v>
@@ -16487,7 +16484,7 @@
         <v>1127</v>
       </c>
       <c r="B1129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1129" t="s">
         <v>5</v>
@@ -16501,7 +16498,7 @@
         <v>1128</v>
       </c>
       <c r="B1130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1130" t="s">
         <v>6</v>
@@ -16515,7 +16512,7 @@
         <v>1129</v>
       </c>
       <c r="B1131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1131" t="s">
         <v>7</v>
@@ -16529,7 +16526,7 @@
         <v>1130</v>
       </c>
       <c r="B1132" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1132" t="s">
         <v>8</v>
@@ -16543,7 +16540,7 @@
         <v>1131</v>
       </c>
       <c r="B1133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1133" t="s">
         <v>9</v>
@@ -16557,7 +16554,7 @@
         <v>1132</v>
       </c>
       <c r="B1134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1134" t="s">
         <v>10</v>
@@ -16571,7 +16568,7 @@
         <v>1133</v>
       </c>
       <c r="B1135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1135" t="s">
         <v>11</v>
@@ -16585,7 +16582,7 @@
         <v>1134</v>
       </c>
       <c r="B1136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1136" t="s">
         <v>12</v>
@@ -16599,7 +16596,7 @@
         <v>1135</v>
       </c>
       <c r="B1137" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1137" t="s">
         <v>13</v>
@@ -16613,7 +16610,7 @@
         <v>1136</v>
       </c>
       <c r="B1138" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1138" t="s">
         <v>14</v>
@@ -16627,7 +16624,7 @@
         <v>1137</v>
       </c>
       <c r="B1139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1139" t="s">
         <v>15</v>
@@ -16641,7 +16638,7 @@
         <v>1138</v>
       </c>
       <c r="B1140" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1140" t="s">
         <v>16</v>
@@ -16655,7 +16652,7 @@
         <v>1139</v>
       </c>
       <c r="B1141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1141" t="s">
         <v>17</v>
@@ -16669,7 +16666,7 @@
         <v>1140</v>
       </c>
       <c r="B1142" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1142" t="s">
         <v>18</v>
@@ -16683,7 +16680,7 @@
         <v>1141</v>
       </c>
       <c r="B1143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1143" t="s">
         <v>19</v>
@@ -16697,7 +16694,7 @@
         <v>1142</v>
       </c>
       <c r="B1144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1144" t="s">
         <v>20</v>
@@ -16711,7 +16708,7 @@
         <v>1143</v>
       </c>
       <c r="B1145" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1145" t="s">
         <v>21</v>
@@ -16725,7 +16722,7 @@
         <v>1144</v>
       </c>
       <c r="B1146" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1146" t="s">
         <v>22</v>
@@ -16739,7 +16736,7 @@
         <v>1145</v>
       </c>
       <c r="B1147" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1147" t="s">
         <v>23</v>
@@ -16753,7 +16750,7 @@
         <v>1146</v>
       </c>
       <c r="B1148" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1148" t="s">
         <v>24</v>
@@ -16767,7 +16764,7 @@
         <v>1147</v>
       </c>
       <c r="B1149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1149" t="s">
         <v>25</v>
@@ -16781,7 +16778,7 @@
         <v>1148</v>
       </c>
       <c r="B1150" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1150" t="s">
         <v>26</v>
@@ -16795,7 +16792,7 @@
         <v>1149</v>
       </c>
       <c r="B1151" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1151" t="s">
         <v>27</v>
@@ -16809,7 +16806,7 @@
         <v>1150</v>
       </c>
       <c r="B1152" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1152" t="s">
         <v>28</v>
@@ -16823,7 +16820,7 @@
         <v>1151</v>
       </c>
       <c r="B1153" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1153" t="s">
         <v>29</v>
@@ -16837,7 +16834,7 @@
         <v>1152</v>
       </c>
       <c r="B1154" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1154" t="s">
         <v>30</v>
@@ -16851,7 +16848,7 @@
         <v>1153</v>
       </c>
       <c r="B1155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1155" t="s">
         <v>31</v>
@@ -16865,7 +16862,7 @@
         <v>1154</v>
       </c>
       <c r="B1156" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1156" t="s">
         <v>32</v>
@@ -16879,7 +16876,7 @@
         <v>1155</v>
       </c>
       <c r="B1157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1157" t="s">
         <v>33</v>
@@ -16893,7 +16890,7 @@
         <v>1156</v>
       </c>
       <c r="B1158" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1158" t="s">
         <v>34</v>
@@ -16907,7 +16904,7 @@
         <v>1157</v>
       </c>
       <c r="B1159" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1159" t="s">
         <v>35</v>
@@ -16921,7 +16918,7 @@
         <v>1158</v>
       </c>
       <c r="B1160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1160" t="s">
         <v>36</v>
@@ -16935,7 +16932,7 @@
         <v>1159</v>
       </c>
       <c r="B1161" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1161" t="s">
         <v>72</v>
@@ -16949,7 +16946,7 @@
         <v>1160</v>
       </c>
       <c r="B1162" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1162" t="s">
         <v>73</v>
@@ -16963,7 +16960,7 @@
         <v>1161</v>
       </c>
       <c r="B1163" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1163" t="s">
         <v>74</v>
@@ -16977,7 +16974,7 @@
         <v>1162</v>
       </c>
       <c r="B1164" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1164" t="s">
         <v>75</v>
@@ -16991,7 +16988,7 @@
         <v>1163</v>
       </c>
       <c r="B1165" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1165" t="s">
         <v>76</v>
@@ -17005,7 +17002,7 @@
         <v>1164</v>
       </c>
       <c r="B1166" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1166" t="s">
         <v>77</v>
@@ -17019,7 +17016,7 @@
         <v>1165</v>
       </c>
       <c r="B1167" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1167" t="s">
         <v>78</v>
@@ -17033,7 +17030,7 @@
         <v>1166</v>
       </c>
       <c r="B1168" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1168" t="s">
         <v>79</v>
@@ -17047,7 +17044,7 @@
         <v>1167</v>
       </c>
       <c r="B1169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1169" t="s">
         <v>80</v>
@@ -17061,7 +17058,7 @@
         <v>1168</v>
       </c>
       <c r="B1170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1170" t="s">
         <v>81</v>
@@ -17075,7 +17072,7 @@
         <v>1169</v>
       </c>
       <c r="B1171" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1171" t="s">
         <v>82</v>
@@ -17089,7 +17086,7 @@
         <v>1170</v>
       </c>
       <c r="B1172" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1172" t="s">
         <v>83</v>
@@ -17103,7 +17100,7 @@
         <v>1171</v>
       </c>
       <c r="B1173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1173" t="s">
         <v>84</v>
@@ -17117,7 +17114,7 @@
         <v>1172</v>
       </c>
       <c r="B1174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1174" t="s">
         <v>37</v>
@@ -17131,7 +17128,7 @@
         <v>1173</v>
       </c>
       <c r="B1175" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1175" t="s">
         <v>38</v>
@@ -17145,7 +17142,7 @@
         <v>1174</v>
       </c>
       <c r="B1176" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1176" t="s">
         <v>39</v>
@@ -17159,7 +17156,7 @@
         <v>1175</v>
       </c>
       <c r="B1177" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1177" t="s">
         <v>40</v>
@@ -17173,7 +17170,7 @@
         <v>1176</v>
       </c>
       <c r="B1178" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1178" t="s">
         <v>41</v>
@@ -17187,7 +17184,7 @@
         <v>1177</v>
       </c>
       <c r="B1179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1179" t="s">
         <v>42</v>
@@ -17201,7 +17198,7 @@
         <v>1178</v>
       </c>
       <c r="B1180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1180" t="s">
         <v>43</v>
@@ -17215,7 +17212,7 @@
         <v>1179</v>
       </c>
       <c r="B1181" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1181" t="s">
         <v>44</v>
@@ -17229,7 +17226,7 @@
         <v>1180</v>
       </c>
       <c r="B1182" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1182" t="s">
         <v>45</v>
@@ -17243,7 +17240,7 @@
         <v>1181</v>
       </c>
       <c r="B1183" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1183" t="s">
         <v>46</v>
@@ -17257,7 +17254,7 @@
         <v>1182</v>
       </c>
       <c r="B1184" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1184" t="s">
         <v>47</v>
@@ -17271,7 +17268,7 @@
         <v>1183</v>
       </c>
       <c r="B1185" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1185" t="s">
         <v>48</v>
@@ -17285,7 +17282,7 @@
         <v>1184</v>
       </c>
       <c r="B1186" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1186" t="s">
         <v>49</v>
@@ -17299,7 +17296,7 @@
         <v>1185</v>
       </c>
       <c r="B1187" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1187" t="s">
         <v>50</v>
@@ -17313,7 +17310,7 @@
         <v>1186</v>
       </c>
       <c r="B1188" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1188" t="s">
         <v>51</v>
@@ -17327,7 +17324,7 @@
         <v>1187</v>
       </c>
       <c r="B1189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1189" t="s">
         <v>52</v>
@@ -17341,7 +17338,7 @@
         <v>1188</v>
       </c>
       <c r="B1190" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1190" t="s">
         <v>53</v>
@@ -17355,7 +17352,7 @@
         <v>1189</v>
       </c>
       <c r="B1191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1191" t="s">
         <v>54</v>
@@ -17369,7 +17366,7 @@
         <v>1190</v>
       </c>
       <c r="B1192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1192" t="s">
         <v>55</v>
@@ -17383,7 +17380,7 @@
         <v>1191</v>
       </c>
       <c r="B1193" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1193" t="s">
         <v>56</v>
@@ -17397,7 +17394,7 @@
         <v>1192</v>
       </c>
       <c r="B1194" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1194" t="s">
         <v>57</v>
@@ -17411,7 +17408,7 @@
         <v>1193</v>
       </c>
       <c r="B1195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1195" t="s">
         <v>58</v>
@@ -17425,7 +17422,7 @@
         <v>1194</v>
       </c>
       <c r="B1196" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1196" t="s">
         <v>59</v>
@@ -17439,7 +17436,7 @@
         <v>1195</v>
       </c>
       <c r="B1197" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1197" t="s">
         <v>60</v>
@@ -17453,7 +17450,7 @@
         <v>1196</v>
       </c>
       <c r="B1198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1198" t="s">
         <v>61</v>
@@ -17467,7 +17464,7 @@
         <v>1197</v>
       </c>
       <c r="B1199" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1199" t="s">
         <v>62</v>
@@ -17481,7 +17478,7 @@
         <v>1198</v>
       </c>
       <c r="B1200" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1200" t="s">
         <v>63</v>
@@ -17495,7 +17492,7 @@
         <v>1199</v>
       </c>
       <c r="B1201" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1201" t="s">
         <v>64</v>
@@ -17509,7 +17506,7 @@
         <v>1200</v>
       </c>
       <c r="B1202" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1202" t="s">
         <v>65</v>
@@ -17523,7 +17520,7 @@
         <v>1201</v>
       </c>
       <c r="B1203" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1203" t="s">
         <v>66</v>
@@ -17537,7 +17534,7 @@
         <v>1202</v>
       </c>
       <c r="B1204" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1204" t="s">
         <v>67</v>
@@ -17551,7 +17548,7 @@
         <v>1203</v>
       </c>
       <c r="B1205" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1205" t="s">
         <v>68</v>
